--- a/documents/Arten von Kills.xlsx
+++ b/documents/Arten von Kills.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve\Programme\Java\Werwolf\src\documents\2_7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\IdeaProjects\Werwolf\src\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9BB10C9-4FAB-4FD9-8B74-7511320042B5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{FFF739EF-B70A-41AA-8CCA-B8E82F2D4968}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7488"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -68,7 +67,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -427,19 +426,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A825FFC5-EFB8-4F04-9F1D-9AFB0D95370F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="6" width="13.28515625" customWidth="1"/>
+    <col min="2" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -456,7 +455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -476,7 +475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -496,7 +495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -516,7 +515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>

--- a/documents/Arten von Kills.xlsx
+++ b/documents/Arten von Kills.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\IdeaProjects\Werwolf\src\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve\Programme\Java\Werwolf\src\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25C66DD-14F1-4CD2-AB25-9E809CC30842}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7488"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -77,7 +78,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -86,13 +87,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -109,16 +104,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3737"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3737"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -426,19 +447,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="6" width="13.33203125" customWidth="1"/>
+    <col min="2" max="6" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -455,7 +476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -475,11 +496,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -495,17 +516,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -515,27 +536,36 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:F5">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",B2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>